--- a/Asset-Management-App/Cleaned_Asset_Register.xlsx
+++ b/Asset-Management-App/Cleaned_Asset_Register.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyaba\Downloads\Interns-project\Asset-Management-System\Asset-Management-App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC747BD-48BA-45E9-A176-93C4443E2D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8212DDE5-CE76-4D96-849D-47564326EBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2244,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H353"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
